--- a/data/state_statutes.xlsx
+++ b/data/state_statutes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwiederstein/Dropbox/state_rep/bill_requests/evidence_based/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96014D46-22DD-084A-9364-945A07FD807B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485DF954-1EF1-E44B-8C2B-C4D8B750E471}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{BBA37979-F0DA-1A40-8D38-45008834EE88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>state</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>https://github.com/RobWiederstein/evidence_based/blob/master/statutes/2015-01-01_conn_evidence_based_statute.pdf</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>https://github.com/RobWiederstein/evidence_based/blob/master/statutes/2015-01-01_minesota_cost_benefit_inventory_appropriation.pdf</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47F192A-410E-3B49-977B-970014D86BF5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,6 +461,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
